--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86126.38273467027</v>
+        <v>77605.29785372119</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737735</v>
+        <v>17594155.61720906</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16373502.16775414</v>
+        <v>15820853.8764602</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3635338.665084306</v>
+        <v>3833270.646584355</v>
       </c>
     </row>
     <row r="11">
@@ -2087,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>206.5834262457109</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H20" t="n">
-        <v>13.89851841884233</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>70.03974083464111</v>
+        <v>38.69730777810975</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>52.30718827170665</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
         <v>174.5627220424961</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2245,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>144.7064129111722</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.4502772195035</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2321,67 +2323,67 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>123.6621491913813</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>268.3884052419273</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85.48824505609757</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="X23" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>219.9844192126098</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14.51497020221982</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9101097868343</v>
+        <v>41.82514761075027</v>
       </c>
       <c r="T24" t="n">
         <v>157.7484451748619</v>
@@ -2454,7 +2456,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>39.74999971667782</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>169.7316066581895</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>353.8766502980249</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>340.5116906995508</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,16 +2645,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>57.11049760307078</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V27" t="n">
-        <v>159.6908732144031</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W27" t="n">
         <v>211.1008365810345</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>33.88583052117948</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.3479570160123</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>387.4601690373238</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>269.555124012547</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>44.99620481467691</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,10 +2927,10 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
-        <v>211.5744117368965</v>
+        <v>110.936464165106</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>23.90092288974124</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>120.8701941643277</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>79.66075663876462</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>37.58178447872343</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,13 +3110,13 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>13.55973839139544</v>
       </c>
       <c r="F33" t="n">
         <v>107.8702810193205</v>
@@ -3162,19 +3164,19 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>69.59504029520305</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.7165542762734</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>13.88126300749924</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>99.38676347493967</v>
       </c>
       <c r="G35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3320,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.537471181140626</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3348,16 +3350,16 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028015</v>
+        <v>27.4680166917715</v>
       </c>
       <c r="E36" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3393,16 +3395,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U36" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>54.89441676184293</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
         <v>211.1008365810345</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>159.3854280103017</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -3433,16 +3435,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>146.096337622853</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>209.7183039501509</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>390.1527797502169</v>
+        <v>89.89083853279811</v>
       </c>
       <c r="Y38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>92.00638869272557</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
         <v>115.7281862028015</v>
@@ -3636,19 +3638,19 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>106.1331548337409</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="40">
@@ -3661,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>128.3240590578966</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>139.6550878937856</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3715,16 +3717,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>338.2120200649931</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>350.7417725935846</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3824,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>15.09023863101061</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
@@ -3831,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>12.70311005203167</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>157.7484451748619</v>
@@ -3882,7 +3884,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>131.9331594184384</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3907,13 +3909,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>148.4605485868864</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1167463817918</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,16 +4106,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>69.12146513934103</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>127.2691129752735</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>131.6028925567243</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="C20" t="n">
-        <v>131.6028925567243</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="D20" t="n">
-        <v>131.6028925567243</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="E20" t="n">
-        <v>131.6028925567243</v>
+        <v>1031.236326875557</v>
       </c>
       <c r="F20" t="n">
-        <v>131.6028925567243</v>
+        <v>822.5661993546372</v>
       </c>
       <c r="G20" t="n">
-        <v>131.6028925567243</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H20" t="n">
         <v>117.5639850629442</v>
@@ -5750,52 +5752,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J20" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K20" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L20" t="n">
-        <v>1057.900197753201</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M20" t="n">
-        <v>1174.359867048153</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N20" t="n">
-        <v>1174.359867048153</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="O20" t="n">
-        <v>1174.359867048153</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P20" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q20" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R20" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S20" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T20" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U20" t="n">
-        <v>1303.550627260378</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V20" t="n">
-        <v>1303.550627260378</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W20" t="n">
-        <v>919.7903263955463</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X20" t="n">
-        <v>525.6966094761353</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="Y20" t="n">
-        <v>131.6028925567243</v>
+        <v>1425.330043794968</v>
       </c>
     </row>
     <row r="21">
@@ -5805,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>710.0430642665517</v>
+        <v>657.6354495973663</v>
       </c>
       <c r="C21" t="n">
-        <v>576.0479930154975</v>
+        <v>523.640378346312</v>
       </c>
       <c r="D21" t="n">
-        <v>459.1508352348899</v>
+        <v>406.7432205657044</v>
       </c>
       <c r="E21" t="n">
-        <v>338.6580192272179</v>
+        <v>286.2504045580324</v>
       </c>
       <c r="F21" t="n">
-        <v>229.6981394097224</v>
+        <v>177.290524740537</v>
       </c>
       <c r="G21" t="n">
-        <v>122.7080267240611</v>
+        <v>70.30041205487569</v>
       </c>
       <c r="H21" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I21" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J21" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K21" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7046310488249</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M21" t="n">
-        <v>794.9558830015396</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N21" t="n">
         <v>1181.207134954254</v>
@@ -5856,25 +5858,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S21" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T21" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U21" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V21" t="n">
-        <v>1238.90958210821</v>
+        <v>1346.899591993901</v>
       </c>
       <c r="W21" t="n">
-        <v>1186.074038399415</v>
+        <v>1133.66642373023</v>
       </c>
       <c r="X21" t="n">
-        <v>1009.748056538308</v>
+        <v>957.340441869123</v>
       </c>
       <c r="Y21" t="n">
-        <v>850.3460969021384</v>
+        <v>797.938482232953</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.0742562189813</v>
+        <v>632.0701256381002</v>
       </c>
       <c r="C22" t="n">
-        <v>508.9808837806978</v>
+        <v>460.9767531998167</v>
       </c>
       <c r="D22" t="n">
-        <v>508.9808837806978</v>
+        <v>460.9767531998167</v>
       </c>
       <c r="E22" t="n">
-        <v>348.0700686490173</v>
+        <v>460.9767531998167</v>
       </c>
       <c r="F22" t="n">
-        <v>348.0700686490173</v>
+        <v>460.9767531998167</v>
       </c>
       <c r="G22" t="n">
-        <v>180.8196775745607</v>
+        <v>293.7263621253601</v>
       </c>
       <c r="H22" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I22" t="n">
         <v>31.21222238001735</v>
@@ -5935,25 +5937,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S22" t="n">
-        <v>1375.307808678137</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T22" t="n">
-        <v>1375.307808678137</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U22" t="n">
-        <v>1092.509661224261</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V22" t="n">
-        <v>1092.509661224261</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="W22" t="n">
-        <v>1092.509661224261</v>
+        <v>1095.149686389652</v>
       </c>
       <c r="X22" t="n">
-        <v>1092.509661224261</v>
+        <v>856.8058242493355</v>
       </c>
       <c r="Y22" t="n">
-        <v>867.7739626130257</v>
+        <v>632.0701256381002</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1338.404634947726</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="C23" t="n">
-        <v>1338.404634947726</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="D23" t="n">
-        <v>944.3109180283154</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="E23" t="n">
-        <v>819.3996562188394</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="F23" t="n">
-        <v>425.3059392994284</v>
+        <v>388.6633842972142</v>
       </c>
       <c r="G23" t="n">
-        <v>31.21222238001735</v>
+        <v>388.6633842972142</v>
       </c>
       <c r="H23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
@@ -5990,16 +5992,16 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K23" t="n">
-        <v>361.3007174531585</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L23" t="n">
-        <v>747.5519694058733</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M23" t="n">
-        <v>1133.803221358588</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N23" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O23" t="n">
         <v>1520.054473311303</v>
@@ -6017,22 +6019,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T23" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U23" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V23" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W23" t="n">
-        <v>1338.404634947726</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="X23" t="n">
-        <v>1338.404634947726</v>
+        <v>782.7571012166252</v>
       </c>
       <c r="Y23" t="n">
-        <v>1338.404634947726</v>
+        <v>782.7571012166252</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>532.3057386166065</v>
+        <v>258.6951510733506</v>
       </c>
       <c r="C24" t="n">
-        <v>398.3106673655522</v>
+        <v>258.6951510733506</v>
       </c>
       <c r="D24" t="n">
-        <v>281.4135095849446</v>
+        <v>258.6951510733506</v>
       </c>
       <c r="E24" t="n">
-        <v>160.9206935772726</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="F24" t="n">
-        <v>51.96081375977718</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G24" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H24" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I24" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J24" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K24" t="n">
-        <v>224.0250799426506</v>
+        <v>372.2978437800934</v>
       </c>
       <c r="L24" t="n">
-        <v>224.0250799426506</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="M24" t="n">
-        <v>610.2763318953653</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="N24" t="n">
-        <v>996.52758384808</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="O24" t="n">
-        <v>1144.800347685523</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="P24" t="n">
         <v>1531.051599638238</v>
@@ -6093,25 +6095,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S24" t="n">
-        <v>1452.621109115176</v>
+        <v>1518.363495151625</v>
       </c>
       <c r="T24" t="n">
-        <v>1293.279245302185</v>
+        <v>1359.021631338633</v>
       </c>
       <c r="U24" t="n">
-        <v>1095.928434440403</v>
+        <v>1161.670820476852</v>
       </c>
       <c r="V24" t="n">
-        <v>1095.928434440403</v>
+        <v>947.9592934698857</v>
       </c>
       <c r="W24" t="n">
-        <v>882.6952661767319</v>
+        <v>734.7261252062144</v>
       </c>
       <c r="X24" t="n">
-        <v>706.3692843156248</v>
+        <v>558.4001433451073</v>
       </c>
       <c r="Y24" t="n">
-        <v>546.9673246794548</v>
+        <v>398.9981837089373</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.571183279005</v>
+        <v>708.6270433231189</v>
       </c>
       <c r="C25" t="n">
-        <v>617.571183279005</v>
+        <v>708.6270433231189</v>
       </c>
       <c r="D25" t="n">
-        <v>458.076538601915</v>
+        <v>549.1323986460288</v>
       </c>
       <c r="E25" t="n">
-        <v>297.1657234702345</v>
+        <v>388.2215835143483</v>
       </c>
       <c r="F25" t="n">
-        <v>297.1657234702345</v>
+        <v>388.2215835143483</v>
       </c>
       <c r="G25" t="n">
-        <v>297.1657234702345</v>
+        <v>220.9711924398917</v>
       </c>
       <c r="H25" t="n">
-        <v>147.5582682756912</v>
+        <v>71.36373724534837</v>
       </c>
       <c r="I25" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001724</v>
       </c>
       <c r="J25" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6169,28 +6171,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R25" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S25" t="n">
-        <v>1475.338400676267</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T25" t="n">
-        <v>1475.338400676267</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U25" t="n">
-        <v>1475.338400676267</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="V25" t="n">
-        <v>1201.452655615789</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="W25" t="n">
-        <v>1030.006588284285</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="X25" t="n">
-        <v>1030.006588284285</v>
+        <v>896.3267497171632</v>
       </c>
       <c r="Y25" t="n">
-        <v>805.2708896730494</v>
+        <v>896.3267497171632</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.21222238001735</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="C26" t="n">
-        <v>31.21222238001735</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="D26" t="n">
-        <v>31.21222238001735</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="E26" t="n">
-        <v>31.21222238001735</v>
+        <v>1216.659916274048</v>
       </c>
       <c r="F26" t="n">
-        <v>31.21222238001735</v>
+        <v>822.5661993546371</v>
       </c>
       <c r="G26" t="n">
-        <v>31.21222238001735</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H26" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I26" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J26" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L26" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M26" t="n">
-        <v>426.3909626105813</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N26" t="n">
-        <v>812.642214563296</v>
+        <v>671.6489458004862</v>
       </c>
       <c r="O26" t="n">
-        <v>1198.893466516011</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P26" t="n">
-        <v>1198.893466516011</v>
+        <v>1444.151449705915</v>
       </c>
       <c r="Q26" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R26" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S26" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T26" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U26" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V26" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W26" t="n">
-        <v>1176.850818136036</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="X26" t="n">
-        <v>782.7571012166252</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Y26" t="n">
-        <v>388.6633842972142</v>
+        <v>1560.611119000867</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>710.0430642665517</v>
+        <v>402.5972674193512</v>
       </c>
       <c r="C27" t="n">
-        <v>576.0479930154975</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="D27" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E27" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F27" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G27" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H27" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I27" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J27" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K27" t="n">
-        <v>610.2763318953653</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L27" t="n">
-        <v>996.52758384808</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="M27" t="n">
-        <v>1382.778835800795</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="N27" t="n">
-        <v>1382.778835800795</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="O27" t="n">
-        <v>1382.778835800795</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="P27" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q27" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R27" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S27" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.611119000868</v>
+        <v>1502.923747684634</v>
       </c>
       <c r="U27" t="n">
-        <v>1560.611119000868</v>
+        <v>1305.572936822853</v>
       </c>
       <c r="V27" t="n">
-        <v>1399.307206663087</v>
+        <v>1091.861409815886</v>
       </c>
       <c r="W27" t="n">
-        <v>1186.074038399415</v>
+        <v>878.6282415522151</v>
       </c>
       <c r="X27" t="n">
-        <v>1009.748056538308</v>
+        <v>702.3022596911078</v>
       </c>
       <c r="Y27" t="n">
-        <v>850.3460969021384</v>
+        <v>542.9003000549378</v>
       </c>
     </row>
     <row r="28">
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>341.7304927062412</v>
+        <v>509.9475861193833</v>
       </c>
       <c r="C28" t="n">
-        <v>341.7304927062412</v>
+        <v>509.9475861193833</v>
       </c>
       <c r="D28" t="n">
-        <v>341.7304927062412</v>
+        <v>509.9475861193833</v>
       </c>
       <c r="E28" t="n">
-        <v>180.8196775745607</v>
+        <v>349.0367709877028</v>
       </c>
       <c r="F28" t="n">
-        <v>180.8196775745607</v>
+        <v>349.0367709877028</v>
       </c>
       <c r="G28" t="n">
-        <v>180.8196775745607</v>
+        <v>181.7863799132462</v>
       </c>
       <c r="H28" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I28" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J28" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K28" t="n">
         <v>199.8470995074659</v>
@@ -6391,7 +6393,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6400,34 +6402,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P28" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q28" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R28" t="n">
         <v>1475.338400676267</v>
       </c>
       <c r="S28" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T28" t="n">
-        <v>1177.484049711721</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U28" t="n">
-        <v>894.6859022578449</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="V28" t="n">
-        <v>620.8001571973668</v>
+        <v>1201.452655615789</v>
       </c>
       <c r="W28" t="n">
-        <v>341.7304927062412</v>
+        <v>922.382991124663</v>
       </c>
       <c r="X28" t="n">
-        <v>341.7304927062412</v>
+        <v>922.382991124663</v>
       </c>
       <c r="Y28" t="n">
-        <v>341.7304927062412</v>
+        <v>697.6472925134277</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>425.3059392994284</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="C29" t="n">
-        <v>425.3059392994284</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="D29" t="n">
-        <v>31.21222238001735</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="E29" t="n">
-        <v>31.21222238001735</v>
+        <v>816.6798474179373</v>
       </c>
       <c r="F29" t="n">
-        <v>31.21222238001735</v>
+        <v>422.5861304985262</v>
       </c>
       <c r="G29" t="n">
         <v>31.21222238001735</v>
@@ -6461,19 +6463,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J29" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K29" t="n">
-        <v>671.6489458004863</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L29" t="n">
-        <v>671.6489458004863</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M29" t="n">
-        <v>853.1988602528609</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="N29" t="n">
-        <v>853.1988602528609</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="O29" t="n">
         <v>1239.450112205576</v>
@@ -6491,22 +6493,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T29" t="n">
-        <v>1338.404634947726</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U29" t="n">
-        <v>1081.344143207237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V29" t="n">
-        <v>809.0662401642599</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W29" t="n">
-        <v>425.3059392994284</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="X29" t="n">
-        <v>425.3059392994284</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="Y29" t="n">
-        <v>425.3059392994284</v>
+        <v>1210.773564337348</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>638.5966184199613</v>
+        <v>402.5972674193512</v>
       </c>
       <c r="C30" t="n">
-        <v>504.601547168907</v>
+        <v>268.6021961682969</v>
       </c>
       <c r="D30" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E30" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F30" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G30" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H30" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I30" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J30" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>417.4634743327321</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>803.7147262854468</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N30" t="n">
-        <v>803.7147262854468</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O30" t="n">
-        <v>1189.965978238161</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P30" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q30" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R30" t="n">
         <v>1560.611119000868</v>
@@ -6573,19 +6575,19 @@
         <v>1401.269255187876</v>
       </c>
       <c r="U30" t="n">
-        <v>1401.269255187876</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V30" t="n">
-        <v>1187.55772818091</v>
+        <v>1091.861409815886</v>
       </c>
       <c r="W30" t="n">
-        <v>974.3245599172384</v>
+        <v>878.6282415522151</v>
       </c>
       <c r="X30" t="n">
-        <v>797.9985780561312</v>
+        <v>702.3022596911078</v>
       </c>
       <c r="Y30" t="n">
-        <v>638.5966184199613</v>
+        <v>542.9003000549378</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.7068670571073</v>
+        <v>361.8002394953908</v>
       </c>
       <c r="C31" t="n">
         <v>190.7068670571073</v>
@@ -6619,16 +6621,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J31" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280195</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6637,34 +6639,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P31" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q31" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R31" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S31" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T31" t="n">
-        <v>1264.804286202904</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U31" t="n">
-        <v>982.0061387490277</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="V31" t="n">
-        <v>708.1203936885496</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="W31" t="n">
-        <v>429.0507291974239</v>
+        <v>1012.579506640987</v>
       </c>
       <c r="X31" t="n">
-        <v>190.7068670571073</v>
+        <v>774.2356445006706</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.7068670571073</v>
+        <v>549.4999458894353</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1210.773564337348</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C32" t="n">
-        <v>1210.773564337348</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.773564337348</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E32" t="n">
-        <v>816.6798474179373</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F32" t="n">
-        <v>816.6798474179373</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G32" t="n">
-        <v>422.5861304985262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H32" t="n">
-        <v>111.6776331262442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I32" t="n">
         <v>31.21222238001735</v>
@@ -6701,16 +6703,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K32" t="n">
+        <v>31.21222238001735</v>
+      </c>
+      <c r="L32" t="n">
         <v>417.4634743327321</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>803.7147262854468</v>
       </c>
-      <c r="M32" t="n">
-        <v>1133.803221358588</v>
-      </c>
       <c r="N32" t="n">
-        <v>1520.054473311303</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="O32" t="n">
         <v>1520.054473311303</v>
@@ -6725,25 +6727,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1560.611119000868</v>
+        <v>1387.368645331611</v>
       </c>
       <c r="U32" t="n">
-        <v>1560.611119000868</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="V32" t="n">
-        <v>1210.773564337348</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="W32" t="n">
-        <v>1210.773564337348</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="X32" t="n">
-        <v>1210.773564337348</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y32" t="n">
-        <v>1210.773564337348</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6755,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>710.0430642665517</v>
+        <v>352.3547246730719</v>
       </c>
       <c r="C33" t="n">
-        <v>576.0479930154975</v>
+        <v>352.3547246730719</v>
       </c>
       <c r="D33" t="n">
-        <v>459.1508352348899</v>
+        <v>352.3547246730719</v>
       </c>
       <c r="E33" t="n">
         <v>338.6580192272179</v>
@@ -6777,28 +6779,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J33" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>31.21222238001735</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M33" t="n">
-        <v>372.2978437800934</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N33" t="n">
-        <v>758.5490957328082</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O33" t="n">
-        <v>1144.800347685523</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P33" t="n">
-        <v>1531.051599638238</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q33" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
@@ -6810,19 +6812,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U33" t="n">
-        <v>1293.279245302185</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V33" t="n">
-        <v>1293.279245302185</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W33" t="n">
-        <v>1080.046077038513</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X33" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y33" t="n">
-        <v>850.3460969021384</v>
+        <v>492.6577573086585</v>
       </c>
     </row>
     <row r="34">
@@ -6865,7 +6867,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M34" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N34" t="n">
         <v>1029.84703862227</v>
@@ -6880,28 +6882,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S34" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T34" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U34" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W34" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X34" t="n">
-        <v>1288.946632556178</v>
+        <v>1322.267256860551</v>
       </c>
       <c r="Y34" t="n">
-        <v>1288.946632556178</v>
+        <v>1308.245779075198</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>819.3996562188394</v>
+        <v>525.696609476135</v>
       </c>
       <c r="C35" t="n">
-        <v>819.3996562188394</v>
+        <v>131.6028925567241</v>
       </c>
       <c r="D35" t="n">
-        <v>819.3996562188394</v>
+        <v>131.6028925567241</v>
       </c>
       <c r="E35" t="n">
-        <v>425.3059392994284</v>
+        <v>131.6028925567241</v>
       </c>
       <c r="F35" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J35" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K35" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="M35" t="n">
-        <v>426.3909626105813</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="N35" t="n">
-        <v>812.642214563296</v>
+        <v>747.5519694058729</v>
       </c>
       <c r="O35" t="n">
-        <v>1198.893466516011</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="P35" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U35" t="n">
-        <v>1552.99751174719</v>
+        <v>1303.550627260377</v>
       </c>
       <c r="V35" t="n">
-        <v>1203.159957083671</v>
+        <v>1303.550627260377</v>
       </c>
       <c r="W35" t="n">
-        <v>819.3996562188394</v>
+        <v>919.7903263955459</v>
       </c>
       <c r="X35" t="n">
-        <v>819.3996562188394</v>
+        <v>919.7903263955459</v>
       </c>
       <c r="Y35" t="n">
-        <v>819.3996562188394</v>
+        <v>919.7903263955459</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>618.5472599225079</v>
+        <v>192.9527650369014</v>
       </c>
       <c r="C36" t="n">
-        <v>484.5521886714537</v>
+        <v>58.95769378584714</v>
       </c>
       <c r="D36" t="n">
-        <v>367.6550308908461</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="E36" t="n">
-        <v>247.1622148831741</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F36" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K36" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L36" t="n">
-        <v>803.7147262854468</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="M36" t="n">
+        <v>417.4634743327319</v>
+      </c>
+      <c r="N36" t="n">
+        <v>803.7147262854465</v>
+      </c>
+      <c r="O36" t="n">
         <v>1189.965978238161</v>
       </c>
-      <c r="N36" t="n">
-        <v>1189.965978238161</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1531.051599638238</v>
-      </c>
       <c r="P36" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="Q36" t="n">
-        <v>1531.051599638238</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S36" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U36" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V36" t="n">
-        <v>1307.811402319043</v>
+        <v>882.2169074334365</v>
       </c>
       <c r="W36" t="n">
-        <v>1094.578234055372</v>
+        <v>668.9837391697653</v>
       </c>
       <c r="X36" t="n">
-        <v>918.2522521942645</v>
+        <v>492.6577573086581</v>
       </c>
       <c r="Y36" t="n">
-        <v>758.8502925580946</v>
+        <v>333.2557976724881</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>670.2831128319734</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C37" t="n">
-        <v>499.1897403936899</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D37" t="n">
-        <v>339.6950957166</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E37" t="n">
-        <v>178.7842805849194</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F37" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G37" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H37" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I37" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J37" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K37" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L37" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7111,34 +7113,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P37" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q37" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T37" t="n">
-        <v>1321.06237997757</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U37" t="n">
-        <v>1321.06237997757</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V37" t="n">
-        <v>1321.06237997757</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W37" t="n">
-        <v>1321.06237997757</v>
+        <v>1281.541454509741</v>
       </c>
       <c r="X37" t="n">
-        <v>1082.718517837253</v>
+        <v>1281.541454509741</v>
       </c>
       <c r="Y37" t="n">
-        <v>857.9828192260178</v>
+        <v>1281.541454509741</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>425.3059392994284</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C38" t="n">
-        <v>425.3059392994284</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D38" t="n">
-        <v>425.3059392994284</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E38" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F38" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G38" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K38" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L38" t="n">
-        <v>417.4634743327321</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="M38" t="n">
-        <v>747.5519694058733</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="N38" t="n">
-        <v>1133.803221358588</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="O38" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="P38" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R38" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S38" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T38" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U38" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V38" t="n">
-        <v>1425.330043794968</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W38" t="n">
-        <v>1213.49337313825</v>
+        <v>827.0132634725164</v>
       </c>
       <c r="X38" t="n">
-        <v>819.3996562188394</v>
+        <v>736.2144366717102</v>
       </c>
       <c r="Y38" t="n">
-        <v>425.3059392994284</v>
+        <v>736.2144366717102</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>668.9837391697657</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C39" t="n">
         <v>576.0479930154975</v>
@@ -7236,7 +7238,7 @@
         <v>459.1508352348899</v>
       </c>
       <c r="E39" t="n">
-        <v>338.6580192272179</v>
+        <v>338.6580192272178</v>
       </c>
       <c r="F39" t="n">
         <v>229.6981394097224</v>
@@ -7245,58 +7247,58 @@
         <v>122.7080267240611</v>
       </c>
       <c r="H39" t="n">
-        <v>51.96081375977718</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I39" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J39" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L39" t="n">
-        <v>31.21222238001735</v>
+        <v>408.7046310488247</v>
       </c>
       <c r="M39" t="n">
-        <v>417.4634743327321</v>
+        <v>408.7046310488247</v>
       </c>
       <c r="N39" t="n">
-        <v>803.7147262854468</v>
+        <v>794.9558830015393</v>
       </c>
       <c r="O39" t="n">
-        <v>1189.965978238161</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P39" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q39" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R39" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S39" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T39" t="n">
-        <v>1293.279245302185</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U39" t="n">
-        <v>1095.928434440403</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="V39" t="n">
-        <v>882.216907433437</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="W39" t="n">
-        <v>668.9837391697657</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X39" t="n">
-        <v>668.9837391697657</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y39" t="n">
-        <v>668.9837391697657</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>492.7140010185257</v>
+        <v>343.371340165559</v>
       </c>
       <c r="C40" t="n">
-        <v>492.7140010185257</v>
+        <v>172.2779677272756</v>
       </c>
       <c r="D40" t="n">
-        <v>492.7140010185257</v>
+        <v>172.2779677272756</v>
       </c>
       <c r="E40" t="n">
-        <v>363.0937393438827</v>
+        <v>172.2779677272756</v>
       </c>
       <c r="F40" t="n">
-        <v>198.4626134544739</v>
+        <v>172.2779677272756</v>
       </c>
       <c r="G40" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="H40" t="n">
+        <v>31.21222238001734</v>
+      </c>
+      <c r="I40" t="n">
         <v>31.21222238001735</v>
       </c>
-      <c r="H40" t="n">
-        <v>31.21222238001735</v>
-      </c>
-      <c r="I40" t="n">
-        <v>31.21222238001761</v>
-      </c>
       <c r="J40" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L40" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M40" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N40" t="n">
         <v>1029.84703862227</v>
@@ -7348,34 +7350,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P40" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q40" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R40" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S40" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="T40" t="n">
-        <v>1049.39789353288</v>
+        <v>1134.670611857479</v>
       </c>
       <c r="U40" t="n">
-        <v>766.5997460790038</v>
+        <v>1134.670611857479</v>
       </c>
       <c r="V40" t="n">
-        <v>492.7140010185257</v>
+        <v>860.7848667970013</v>
       </c>
       <c r="W40" t="n">
-        <v>492.7140010185257</v>
+        <v>581.7152023058757</v>
       </c>
       <c r="X40" t="n">
-        <v>492.7140010185257</v>
+        <v>343.371340165559</v>
       </c>
       <c r="Y40" t="n">
-        <v>492.7140010185257</v>
+        <v>343.371340165559</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>853.2860050783079</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="C41" t="n">
-        <v>853.2860050783079</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="D41" t="n">
-        <v>853.2860050783079</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="E41" t="n">
-        <v>511.6577019823552</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="F41" t="n">
-        <v>511.6577019823552</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G41" t="n">
-        <v>117.5639850629442</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H41" t="n">
         <v>117.5639850629442</v>
       </c>
       <c r="I41" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J41" t="n">
         <v>285.3976938477716</v>
@@ -7415,46 +7417,46 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L41" t="n">
-        <v>285.3976938477716</v>
+        <v>361.3007174531583</v>
       </c>
       <c r="M41" t="n">
-        <v>671.6489458004863</v>
+        <v>747.5519694058729</v>
       </c>
       <c r="N41" t="n">
-        <v>1057.900197753201</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O41" t="n">
-        <v>1444.151449705916</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="P41" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="Q41" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R41" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T41" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U41" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V41" t="n">
-        <v>853.2860050783079</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W41" t="n">
-        <v>853.2860050783079</v>
+        <v>1176.850818136036</v>
       </c>
       <c r="X41" t="n">
-        <v>853.2860050783079</v>
+        <v>782.7571012166248</v>
       </c>
       <c r="Y41" t="n">
-        <v>853.2860050783079</v>
+        <v>428.4724824352262</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>369.2787468980091</v>
+        <v>300.9427749225928</v>
       </c>
       <c r="C42" t="n">
-        <v>235.2836756469548</v>
+        <v>166.9477036715385</v>
       </c>
       <c r="D42" t="n">
-        <v>235.2836756469548</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E42" t="n">
-        <v>114.7908596392828</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="F42" t="n">
-        <v>114.7908596392828</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="G42" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="H42" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I42" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J42" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953652</v>
       </c>
       <c r="L42" t="n">
-        <v>610.2763318953653</v>
+        <v>824.5154023641693</v>
       </c>
       <c r="M42" t="n">
-        <v>996.52758384808</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="N42" t="n">
-        <v>1382.778835800795</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="O42" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P42" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q42" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R42" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S42" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T42" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187875</v>
       </c>
       <c r="U42" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V42" t="n">
-        <v>882.216907433437</v>
+        <v>990.2069173191278</v>
       </c>
       <c r="W42" t="n">
-        <v>668.9837391697657</v>
+        <v>776.9737490554566</v>
       </c>
       <c r="X42" t="n">
-        <v>668.9837391697657</v>
+        <v>600.6477671943494</v>
       </c>
       <c r="Y42" t="n">
-        <v>509.5817795335957</v>
+        <v>441.2458075581794</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>639.0571005227453</v>
+        <v>1082.718517837253</v>
       </c>
       <c r="C43" t="n">
-        <v>467.9637280844617</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D43" t="n">
-        <v>308.4690834073717</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E43" t="n">
-        <v>147.5582682756912</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F43" t="n">
-        <v>147.5582682756912</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G43" t="n">
-        <v>147.5582682756912</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H43" t="n">
         <v>147.5582682756912</v>
@@ -7567,16 +7569,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J43" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K43" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L43" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M43" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N43" t="n">
         <v>1029.84703862227</v>
@@ -7585,34 +7587,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S43" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T43" t="n">
-        <v>1475.338400676267</v>
+        <v>1321.062379977569</v>
       </c>
       <c r="U43" t="n">
-        <v>1475.338400676267</v>
+        <v>1321.062379977569</v>
       </c>
       <c r="V43" t="n">
-        <v>1201.452655615789</v>
+        <v>1321.062379977569</v>
       </c>
       <c r="W43" t="n">
-        <v>1201.452655615789</v>
+        <v>1321.062379977569</v>
       </c>
       <c r="X43" t="n">
-        <v>1051.492505528025</v>
+        <v>1082.718517837253</v>
       </c>
       <c r="Y43" t="n">
-        <v>826.7568069167896</v>
+        <v>1082.718517837253</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>819.3632588769958</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>425.2695419575848</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>425.2695419575848</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.01289845874021</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>438.2641504114549</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1223.459583545274</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>485.30882297209</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>485.30882297209</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>485.30882297209</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>324.3980078404094</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>159.7668819510007</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.29477178522779</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>459.7441997875263</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>749.0082562280195</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1321.062379977569</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>764.3784874632156</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>485.30882297209</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>485.30882297209</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>485.30882297209</v>
       </c>
     </row>
   </sheetData>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>210.9262540479058</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P20" t="n">
-        <v>483.8021430311011</v>
+        <v>427.0720855769865</v>
       </c>
       <c r="Q20" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,19 +9479,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L21" t="n">
-        <v>437.4199871126749</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M21" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N21" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
@@ -9638,7 +9640,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>165.8061104867393</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L23" t="n">
         <v>485.6381778130617</v>
@@ -9647,10 +9649,10 @@
         <v>483.4430042072623</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>169.5820115701414</v>
       </c>
       <c r="O23" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
@@ -9714,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>400.3567134917629</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M24" t="n">
         <v>447.7170634886343</v>
@@ -9729,10 +9731,10 @@
         <v>443.3461731439669</v>
       </c>
       <c r="O24" t="n">
-        <v>207.5219475226696</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M26" t="n">
-        <v>102.3078893841658</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>483.0650705068362</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O26" t="n">
-        <v>483.342555376</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>166.7035252126743</v>
       </c>
       <c r="R26" t="n">
         <v>128.2784515920617</v>
@@ -9951,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>446.2673035610659</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M27" t="n">
-        <v>447.7170634886343</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>402.2824097071475</v>
       </c>
       <c r="P27" t="n">
-        <v>204.0301035254733</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K29" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L29" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M29" t="n">
-        <v>276.673976429141</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N29" t="n">
-        <v>92.91229075661933</v>
+        <v>142.8962644610781</v>
       </c>
       <c r="O29" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10188,10 +10190,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
         <v>446.2673035610659</v>
@@ -10200,19 +10202,19 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O30" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>398.7905657099514</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10272,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10349,19 +10351,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M32" t="n">
-        <v>426.7129467531477</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N32" t="n">
         <v>483.0650705068362</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>426.6124979218854</v>
       </c>
       <c r="P32" t="n">
         <v>93.64936328088416</v>
@@ -10425,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
-        <v>402.095214445565</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N33" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10513,7 +10515,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>348.4508580952381</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M35" t="n">
-        <v>235.7076676518026</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068362</v>
+        <v>426.3350130527213</v>
       </c>
       <c r="O35" t="n">
-        <v>483.342555376</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10665,22 +10667,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>447.7170634886343</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O36" t="n">
-        <v>402.2824097071477</v>
+        <v>447.9042587502168</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>398.7905657099512</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10744,7 +10746,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10826,19 +10828,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>485.6381778130617</v>
+        <v>485.6381778130616</v>
       </c>
       <c r="M38" t="n">
-        <v>426.7129467531477</v>
+        <v>483.4430042072622</v>
       </c>
       <c r="N38" t="n">
-        <v>483.0650705068362</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>426.6124979218852</v>
       </c>
       <c r="P38" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>90.03380439915205</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>242.6595249281966</v>
       </c>
       <c r="M39" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>443.3461731439669</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O39" t="n">
-        <v>447.9042587502169</v>
+        <v>447.9042587502168</v>
       </c>
       <c r="P39" t="n">
-        <v>75.27041892070574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>172.1551188763667</v>
       </c>
       <c r="M41" t="n">
-        <v>483.4430042072623</v>
+        <v>483.4430042072622</v>
       </c>
       <c r="N41" t="n">
-        <v>483.0650705068362</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O41" t="n">
-        <v>483.342555376</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P41" t="n">
-        <v>211.2853928717445</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,25 +11141,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348322</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610659</v>
+        <v>272.5176252944896</v>
       </c>
       <c r="M42" t="n">
-        <v>447.7170634886343</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N42" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>237.3800478889625</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11215,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
         <v>208.3638319047618</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>169.9599452705675</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11318,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>72.38002271790189</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11391,10 +11393,10 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23975,16 +23977,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>210.2366816801384</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H20" t="n">
-        <v>293.9008939797168</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24063,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>31.34243305653136</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
         <v>157.7484451748619</v>
@@ -24108,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>158.7936483093279</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3.404967731425728</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>1.077573219385357</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24209,22 +24211,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>286.534664136891</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G23" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>39.41100715663191</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -24266,10 +24268,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>124.3850321070109</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>65.08496217608399</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24342,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>75.43258572003928</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>106.5473611880249</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.2423175698197</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24449,19 +24451,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>69.68512262872144</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563252</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587933</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24531,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,13 +24575,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>100.6379475717911</v>
       </c>
       <c r="U27" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>51.88353852249338</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24613,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>114.2255501214184</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>126.8052946170526</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,16 +24685,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>17.18083222877232</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24731,16 +24733,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>76.78405510433714</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>70.73198138812458</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,10 +24815,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>100.6379475717905</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>213.2523287433237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>155.4087736818866</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24925,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>5.827488417332944</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>182.4026347338863</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -24996,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>105.7281494561998</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25050,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.10615505383055</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>208.6070786176237</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762778</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964577</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>317.4333444509097</v>
       </c>
       <c r="G35" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25208,10 +25210,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>246.9524156419444</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25236,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>88.26016951102999</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H36" t="n">
         <v>70.03974083464111</v>
@@ -25281,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>156.6799949750536</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>26.43728131980222</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.88847700766161</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -25372,13 +25374,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762778</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25397,7 +25399,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25406,7 +25408,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
@@ -25448,16 +25450,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>170.2043939060322</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>6.484184102520089</v>
+        <v>306.7461253199389</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25469,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>40.64873184581818</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25524,19 +25526,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>104.9676817472936</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,19 +25551,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>30.97764792246713</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>25.9227992699264</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25634,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>71.98479326327913</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520203</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>46.18553372780616</v>
       </c>
     </row>
     <row r="42">
@@ -25710,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7281862028015</v>
+        <v>100.6379475717909</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25719,10 +25721,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>93.21710150677301</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
         <v>20.54110546596223</v>
@@ -25755,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25770,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>37.44927929546222</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>87.49987493202701</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>16.0022214860528</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -25925,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,16 +25994,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>126.2558376138224</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>211.1008365810345</v>
@@ -26010,7 +26012,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,13 +26031,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>38.30877418843851</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26074,16 +26076,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493111.1961371857</v>
+        <v>493111.1961371858</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493111.1961371856</v>
+        <v>493111.1961371858</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493111.1961371858</v>
+        <v>493111.1961371855</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493111.1961371856</v>
+        <v>493111.1961371857</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150357.0455461972</v>
+        <v>493111.1961371858</v>
       </c>
     </row>
   </sheetData>
@@ -26329,7 +26331,7 @@
         <v>21826.02274057701</v>
       </c>
       <c r="H2" t="n">
-        <v>71564.368957032</v>
+        <v>71564.36895703198</v>
       </c>
       <c r="I2" t="n">
         <v>71564.36895703198</v>
@@ -26338,22 +26340,22 @@
         <v>71564.36895703198</v>
       </c>
       <c r="K2" t="n">
+        <v>71564.368957032</v>
+      </c>
+      <c r="L2" t="n">
         <v>71564.36895703198</v>
       </c>
-      <c r="L2" t="n">
-        <v>71564.368957032</v>
-      </c>
       <c r="M2" t="n">
-        <v>71564.368957032</v>
+        <v>71564.36895703197</v>
       </c>
       <c r="N2" t="n">
+        <v>71564.36895703195</v>
+      </c>
+      <c r="O2" t="n">
         <v>71564.36895703197</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>71564.36895703198</v>
-      </c>
-      <c r="P2" t="n">
-        <v>21826.02274057701</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>92221.97316067779</v>
       </c>
     </row>
     <row r="4">
@@ -26439,25 +26441,25 @@
         <v>8402.128113625799</v>
       </c>
       <c r="J4" t="n">
-        <v>8402.128113625799</v>
+        <v>8402.128113625797</v>
       </c>
       <c r="K4" t="n">
         <v>8402.128113625799</v>
       </c>
       <c r="L4" t="n">
+        <v>8402.128113625799</v>
+      </c>
+      <c r="M4" t="n">
         <v>8402.128113625797</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>8402.128113625797</v>
+      </c>
+      <c r="O4" t="n">
+        <v>8402.128113625797</v>
+      </c>
+      <c r="P4" t="n">
         <v>8402.128113625799</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8402.128113625799</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8402.128113625799</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2425.11363784189</v>
       </c>
     </row>
     <row r="5">
@@ -26491,7 +26493,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="J5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="K5" t="n">
         <v>23721.28900881319</v>
@@ -26500,16 +26502,16 @@
         <v>23721.28900881319</v>
       </c>
       <c r="M5" t="n">
+        <v>23721.28900881318</v>
+      </c>
+      <c r="N5" t="n">
+        <v>23721.28900881318</v>
+      </c>
+      <c r="O5" t="n">
+        <v>23721.28900881318</v>
+      </c>
+      <c r="P5" t="n">
         <v>23721.28900881319</v>
-      </c>
-      <c r="N5" t="n">
-        <v>23721.28900881319</v>
-      </c>
-      <c r="O5" t="n">
-        <v>23721.28900881319</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26537,22 +26539,22 @@
         <v>19400.90910273512</v>
       </c>
       <c r="H6" t="n">
-        <v>-65825.77951703327</v>
+        <v>-65825.77951703328</v>
       </c>
       <c r="I6" t="n">
         <v>39440.951834593</v>
       </c>
       <c r="J6" t="n">
+        <v>39440.95183459301</v>
+      </c>
+      <c r="K6" t="n">
+        <v>39440.95183459301</v>
+      </c>
+      <c r="L6" t="n">
         <v>39440.951834593</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>39440.951834593</v>
-      </c>
-      <c r="L6" t="n">
-        <v>39440.95183459301</v>
-      </c>
-      <c r="M6" t="n">
-        <v>39440.95183459301</v>
       </c>
       <c r="N6" t="n">
         <v>39440.95183459298</v>
@@ -26561,7 +26563,7 @@
         <v>39440.951834593</v>
       </c>
       <c r="P6" t="n">
-        <v>19400.90910273512</v>
+        <v>-52781.0213260848</v>
       </c>
     </row>
   </sheetData>
@@ -26811,7 +26813,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="K4" t="n">
         <v>390.1527797502169</v>
@@ -26820,16 +26822,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M4" t="n">
+        <v>390.1527797502168</v>
+      </c>
+      <c r="N4" t="n">
+        <v>390.1527797502168</v>
+      </c>
+      <c r="O4" t="n">
+        <v>390.1527797502168</v>
+      </c>
+      <c r="P4" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N4" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O4" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.152779750217</v>
       </c>
     </row>
   </sheetData>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M20" t="n">
-        <v>117.6360295908603</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P20" t="n">
-        <v>390.1527797502169</v>
+        <v>333.4227222961023</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L21" t="n">
-        <v>381.3054633018259</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M21" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>76.66972081352215</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L23" t="n">
         <v>390.1527797502169</v>
@@ -36367,10 +36369,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="O23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>344.5309307071475</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M24" t="n">
         <v>390.1527797502169</v>
@@ -36449,10 +36451,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="O24" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>9.017664927120396</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O26" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>76.66972081352226</v>
       </c>
       <c r="R26" t="n">
         <v>40.9663087773382</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M27" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>344.5309307071474</v>
       </c>
       <c r="P27" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M29" t="n">
-        <v>183.3837519720955</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>49.9839737044588</v>
       </c>
       <c r="O29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
         <v>390.1527797502169</v>
@@ -36920,19 +36922,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O30" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>344.5309307071477</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K31" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L31" t="n">
         <v>262.5223235152127</v>
@@ -37069,19 +37071,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M32" t="n">
-        <v>333.4227222961022</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>333.4227222961023</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
-        <v>344.5309307071475</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37235,7 @@
         <v>262.5223235152127</v>
       </c>
       <c r="M34" t="n">
-        <v>292.1859155964578</v>
+        <v>292.1859155964581</v>
       </c>
       <c r="N34" t="n">
         <v>283.67553777197</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M35" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>390.1527797502169</v>
+        <v>333.422722296102</v>
       </c>
       <c r="O35" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O36" t="n">
-        <v>344.5309307071477</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>344.5309307071474</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K37" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L37" t="n">
         <v>262.5223235152127</v>
@@ -37546,19 +37548,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M38" t="n">
-        <v>333.4227222961022</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N38" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>333.4227222961021</v>
       </c>
       <c r="P38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>186.5450011173476</v>
       </c>
       <c r="M39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O39" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P39" t="n">
-        <v>21.01078391790199</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>76.66972081352191</v>
       </c>
       <c r="M41" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N41" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O41" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P41" t="n">
-        <v>117.6360295908603</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="L42" t="n">
-        <v>390.1527797502169</v>
+        <v>216.4031014836405</v>
       </c>
       <c r="M42" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
         <v>156.1134623456949</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>76.66972081352203</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>21.01078391790188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77605.29785372119</v>
+        <v>67847.41417341263</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17594155.61720906</v>
+        <v>17030286.32704075</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15820853.8764602</v>
+        <v>15268205.58516627</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3833270.646584355</v>
+        <v>4114989.573909365</v>
       </c>
     </row>
     <row r="11">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>82.3173339832326</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>43.78855559574902</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>28.05873525312143</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2092,16 +2092,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="F20" t="n">
-        <v>206.5834262457109</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>292.0716713018084</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>31.711750745033</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>38.69730777810975</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2256,10 +2256,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7064129111722</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>216.0738916237437</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>389.1947975106155</v>
       </c>
       <c r="H23" t="n">
-        <v>268.3884052419273</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,10 +2399,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>41.82514761075027</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>157.7484451748619</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>39.74999971667782</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>182.9658461469755</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>340.5116906995508</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G26" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>169.2103782980058</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>138.9000023092308</v>
+        <v>109.6955108573101</v>
       </c>
       <c r="C27" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>119.2878878475953</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>57.11049760307078</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
         <v>195.3773027531635</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>33.88583052117948</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>54.21270768166573</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G29" t="n">
-        <v>387.4601690373238</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>125.396777664673</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>85.23264696142132</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
         <v>157.7484451748619</v>
@@ -2930,7 +2930,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
-        <v>110.936464165106</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
         <v>211.1008365810345</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>1.928973733653427</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2958,16 +2958,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>120.8701941643277</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>379.8866644877579</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G32" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>37.58178447872343</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>13.55973839139544</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
         <v>107.8702810193205</v>
@@ -3128,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>163.4831553041522</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3207,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.928973733653427</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.88126300749924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>99.38676347493967</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.569312247320619</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3347,16 +3347,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>52.25285621099523</v>
       </c>
       <c r="D36" t="n">
-        <v>27.4680166917715</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>159.3854280103017</v>
+        <v>83.46236957123851</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3441,10 +3441,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1527797502168</v>
+        <v>379.8866644877579</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>89.89083853279811</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="39">
@@ -3584,22 +3584,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>20.29414391675817</v>
       </c>
       <c r="H39" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>20.54110546596223</v>
@@ -3638,13 +3638,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>106.1331548337409</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>86.34896487500761</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>139.6550878937856</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>126.1309346165653</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7417725935846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>138.9000023092308</v>
+        <v>88.14021889298168</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
-        <v>15.09023863101061</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>195.3773027531635</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>65.48383042464073</v>
       </c>
       <c r="C43" t="n">
-        <v>131.9331594184384</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1167463817918</v>
+        <v>343.6465684039911</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4067,13 +4067,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>69.12146513934103</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>53.38366900474343</v>
       </c>
       <c r="Y45" t="n">
         <v>157.8079400398083</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>127.2691129752735</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>819.3632588769958</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>425.2695419575848</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>819.3632588769958</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>819.3632588769958</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>819.3632588769958</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>566.6295577597905</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>432.6344865087362</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>388.4036222706059</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>267.9108062629339</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.9509264454385</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>866.3345500315471</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>866.3345500315471</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>706.9325903953771</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>723.4400837351815</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>552.346711296898</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>552.346711296898</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>391.4358961652175</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>226.8047702758087</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>59.55437920135213</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1135.875488740461</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>911.1397901292258</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1425.330043794968</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="C20" t="n">
-        <v>1425.330043794968</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="D20" t="n">
-        <v>1425.330043794968</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="E20" t="n">
-        <v>1031.236326875557</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F20" t="n">
-        <v>822.5661993546372</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G20" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H20" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I20" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J20" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K20" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L20" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M20" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N20" t="n">
-        <v>803.7147262854468</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O20" t="n">
-        <v>1189.965978238161</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P20" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q20" t="n">
         <v>1520.054473311303</v>
@@ -5791,13 +5791,13 @@
         <v>1425.330043794968</v>
       </c>
       <c r="W20" t="n">
-        <v>1425.330043794968</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="X20" t="n">
-        <v>1425.330043794968</v>
+        <v>1130.308153591121</v>
       </c>
       <c r="Y20" t="n">
-        <v>1425.330043794968</v>
+        <v>1130.308153591121</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>657.6354495973663</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C21" t="n">
-        <v>523.640378346312</v>
+        <v>160.9206935772726</v>
       </c>
       <c r="D21" t="n">
-        <v>406.7432205657044</v>
+        <v>160.9206935772726</v>
       </c>
       <c r="E21" t="n">
-        <v>286.2504045580324</v>
+        <v>160.9206935772726</v>
       </c>
       <c r="F21" t="n">
-        <v>177.290524740537</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="G21" t="n">
-        <v>70.30041205487569</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H21" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I21" t="n">
         <v>31.21222238001735</v>
@@ -5840,13 +5840,13 @@
         <v>794.9558830015396</v>
       </c>
       <c r="M21" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N21" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O21" t="n">
-        <v>1181.207134954254</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P21" t="n">
         <v>1181.207134954254</v>
@@ -5858,25 +5858,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S21" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T21" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U21" t="n">
-        <v>1560.611119000868</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V21" t="n">
-        <v>1346.899591993901</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W21" t="n">
-        <v>1133.66642373023</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X21" t="n">
-        <v>957.340441869123</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y21" t="n">
-        <v>797.938482232953</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.0701256381002</v>
+        <v>369.5559858927575</v>
       </c>
       <c r="C22" t="n">
-        <v>460.9767531998167</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="D22" t="n">
-        <v>460.9767531998167</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="E22" t="n">
-        <v>460.9767531998167</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="F22" t="n">
-        <v>460.9767531998167</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G22" t="n">
-        <v>293.7263621253601</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H22" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I22" t="n">
         <v>31.21222238001735</v>
@@ -5934,28 +5934,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R22" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S22" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T22" t="n">
-        <v>1374.219350880778</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U22" t="n">
-        <v>1374.219350880778</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V22" t="n">
-        <v>1374.219350880778</v>
+        <v>775.5121484724016</v>
       </c>
       <c r="W22" t="n">
-        <v>1095.149686389652</v>
+        <v>557.2556922868018</v>
       </c>
       <c r="X22" t="n">
-        <v>856.8058242493355</v>
+        <v>557.2556922868018</v>
       </c>
       <c r="Y22" t="n">
-        <v>632.0701256381002</v>
+        <v>557.2556922868018</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>782.7571012166252</v>
+        <v>818.4319973909592</v>
       </c>
       <c r="C23" t="n">
-        <v>782.7571012166252</v>
+        <v>818.4319973909592</v>
       </c>
       <c r="D23" t="n">
-        <v>782.7571012166252</v>
+        <v>818.4319973909592</v>
       </c>
       <c r="E23" t="n">
-        <v>782.7571012166252</v>
+        <v>818.4319973909592</v>
       </c>
       <c r="F23" t="n">
-        <v>388.6633842972142</v>
+        <v>424.3382804715482</v>
       </c>
       <c r="G23" t="n">
-        <v>388.6633842972142</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H23" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
@@ -5995,19 +5995,19 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L23" t="n">
-        <v>1057.900197753201</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M23" t="n">
-        <v>1444.151449705916</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N23" t="n">
-        <v>1520.054473311303</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O23" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P23" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q23" t="n">
         <v>1520.054473311303</v>
@@ -6016,25 +6016,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S23" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T23" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U23" t="n">
-        <v>1560.611119000868</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="V23" t="n">
-        <v>1560.611119000868</v>
+        <v>818.4319973909592</v>
       </c>
       <c r="W23" t="n">
-        <v>1176.850818136036</v>
+        <v>818.4319973909592</v>
       </c>
       <c r="X23" t="n">
-        <v>782.7571012166252</v>
+        <v>818.4319973909592</v>
       </c>
       <c r="Y23" t="n">
-        <v>782.7571012166252</v>
+        <v>818.4319973909592</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>258.6951510733506</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C24" t="n">
-        <v>258.6951510733506</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D24" t="n">
-        <v>258.6951510733506</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E24" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F24" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G24" t="n">
         <v>31.21222238001735</v>
@@ -6068,25 +6068,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J24" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K24" t="n">
-        <v>372.2978437800934</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L24" t="n">
-        <v>758.5490957328082</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M24" t="n">
-        <v>1144.800347685523</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N24" t="n">
-        <v>1531.051599638238</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O24" t="n">
-        <v>1531.051599638238</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P24" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q24" t="n">
         <v>1531.051599638238</v>
@@ -6095,25 +6095,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S24" t="n">
-        <v>1518.363495151625</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T24" t="n">
-        <v>1359.021631338633</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U24" t="n">
-        <v>1161.670820476852</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V24" t="n">
-        <v>947.9592934698857</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W24" t="n">
-        <v>734.7261252062144</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X24" t="n">
-        <v>558.4001433451073</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y24" t="n">
-        <v>398.9981837089373</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>708.6270433231189</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C25" t="n">
-        <v>708.6270433231189</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D25" t="n">
-        <v>549.1323986460288</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E25" t="n">
-        <v>388.2215835143483</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F25" t="n">
-        <v>388.2215835143483</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G25" t="n">
-        <v>220.9711924398917</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H25" t="n">
-        <v>71.36373724534837</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I25" t="n">
-        <v>31.21222238001724</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J25" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6171,28 +6171,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R25" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S25" t="n">
-        <v>1374.219350880778</v>
+        <v>1290.524414669221</v>
       </c>
       <c r="T25" t="n">
-        <v>1134.67061185748</v>
+        <v>1050.975675645923</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.67061185748</v>
+        <v>768.1775281920474</v>
       </c>
       <c r="V25" t="n">
-        <v>1134.67061185748</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="W25" t="n">
-        <v>1134.67061185748</v>
+        <v>494.2917831315693</v>
       </c>
       <c r="X25" t="n">
-        <v>896.3267497171632</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y25" t="n">
-        <v>896.3267497171632</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C26" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D26" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E26" t="n">
-        <v>1216.659916274048</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F26" t="n">
-        <v>822.5661993546371</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G26" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H26" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I26" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J26" t="n">
         <v>285.3976938477716</v>
@@ -6238,40 +6238,40 @@
         <v>285.3976938477716</v>
       </c>
       <c r="N26" t="n">
-        <v>671.6489458004862</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="O26" t="n">
-        <v>1057.900197753201</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P26" t="n">
-        <v>1444.151449705915</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q26" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R26" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T26" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U26" t="n">
-        <v>1560.611119000867</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V26" t="n">
-        <v>1560.611119000867</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W26" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X26" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y26" t="n">
-        <v>1560.611119000867</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>402.5972674193512</v>
+        <v>222.4522513519733</v>
       </c>
       <c r="C27" t="n">
-        <v>268.6021961682969</v>
+        <v>222.4522513519733</v>
       </c>
       <c r="D27" t="n">
-        <v>151.7050383876894</v>
+        <v>222.4522513519733</v>
       </c>
       <c r="E27" t="n">
-        <v>31.21222238001734</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="F27" t="n">
-        <v>31.21222238001734</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G27" t="n">
-        <v>31.21222238001734</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H27" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I27" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>31.21222238001734</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>31.21222238001734</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L27" t="n">
-        <v>417.4634743327319</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M27" t="n">
-        <v>803.7147262854465</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N27" t="n">
-        <v>1189.965978238161</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O27" t="n">
-        <v>1531.051599638237</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P27" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q27" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R27" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S27" t="n">
-        <v>1560.611119000867</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T27" t="n">
-        <v>1502.923747684634</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U27" t="n">
-        <v>1305.572936822853</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V27" t="n">
-        <v>1091.861409815886</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W27" t="n">
-        <v>878.6282415522151</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X27" t="n">
-        <v>702.3022596911078</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y27" t="n">
-        <v>542.9003000549378</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>509.9475861193833</v>
+        <v>672.3185098216147</v>
       </c>
       <c r="C28" t="n">
-        <v>509.9475861193833</v>
+        <v>501.2251373833312</v>
       </c>
       <c r="D28" t="n">
-        <v>509.9475861193833</v>
+        <v>341.7304927062412</v>
       </c>
       <c r="E28" t="n">
-        <v>349.0367709877028</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="F28" t="n">
-        <v>349.0367709877028</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G28" t="n">
-        <v>181.7863799132462</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H28" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I28" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J28" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K28" t="n">
         <v>199.8470995074659</v>
@@ -6393,7 +6393,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M28" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N28" t="n">
         <v>1029.84703862227</v>
@@ -6402,34 +6402,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P28" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q28" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R28" t="n">
         <v>1475.338400676267</v>
       </c>
       <c r="S28" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T28" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.338400676267</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V28" t="n">
-        <v>1201.452655615789</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W28" t="n">
-        <v>922.382991124663</v>
+        <v>727.0788206111761</v>
       </c>
       <c r="X28" t="n">
-        <v>922.382991124663</v>
+        <v>672.3185098216147</v>
       </c>
       <c r="Y28" t="n">
-        <v>697.6472925134277</v>
+        <v>672.3185098216147</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1210.773564337348</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C29" t="n">
-        <v>1210.773564337348</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D29" t="n">
-        <v>1210.773564337348</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E29" t="n">
-        <v>816.6798474179373</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F29" t="n">
-        <v>422.5861304985262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G29" t="n">
         <v>31.21222238001735</v>
@@ -6463,19 +6463,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J29" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L29" t="n">
-        <v>803.7147262854468</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="M29" t="n">
-        <v>1189.965978238161</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="N29" t="n">
-        <v>1239.450112205576</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O29" t="n">
         <v>1239.450112205576</v>
@@ -6490,25 +6490,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V29" t="n">
-        <v>1210.773564337348</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W29" t="n">
-        <v>1210.773564337348</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X29" t="n">
-        <v>1210.773564337348</v>
+        <v>551.9693510819263</v>
       </c>
       <c r="Y29" t="n">
-        <v>1210.773564337348</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>402.5972674193512</v>
+        <v>333.2557976724885</v>
       </c>
       <c r="C30" t="n">
-        <v>268.6021961682969</v>
+        <v>333.2557976724885</v>
       </c>
       <c r="D30" t="n">
-        <v>151.7050383876894</v>
+        <v>333.2557976724885</v>
       </c>
       <c r="E30" t="n">
-        <v>31.21222238001735</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F30" t="n">
-        <v>31.21222238001735</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G30" t="n">
         <v>31.21222238001735</v>
@@ -6551,43 +6551,43 @@
         <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N30" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O30" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P30" t="n">
-        <v>1560.611119000868</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q30" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R30" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S30" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T30" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U30" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V30" t="n">
-        <v>1091.861409815886</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W30" t="n">
-        <v>878.6282415522151</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X30" t="n">
-        <v>702.3022596911078</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y30" t="n">
-        <v>542.9003000549378</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.8002394953908</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="C31" t="n">
-        <v>190.7068670571073</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D31" t="n">
-        <v>31.21222238001735</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E31" t="n">
-        <v>31.21222238001735</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F31" t="n">
-        <v>31.21222238001735</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G31" t="n">
-        <v>31.21222238001735</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H31" t="n">
         <v>31.21222238001735</v>
@@ -6621,16 +6621,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J31" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6639,34 +6639,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P31" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q31" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R31" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S31" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T31" t="n">
-        <v>1134.67061185748</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U31" t="n">
-        <v>1134.67061185748</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V31" t="n">
-        <v>1134.67061185748</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W31" t="n">
-        <v>1012.579506640987</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="X31" t="n">
-        <v>774.2356445006706</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="Y31" t="n">
-        <v>549.4999458894353</v>
+        <v>1006.148485102302</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>736.2144366717104</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="C32" t="n">
-        <v>736.2144366717104</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="D32" t="n">
-        <v>736.2144366717104</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="E32" t="n">
-        <v>736.2144366717104</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F32" t="n">
-        <v>736.2144366717104</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G32" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H32" t="n">
         <v>31.21222238001735</v>
@@ -6700,25 +6700,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K32" t="n">
-        <v>31.21222238001735</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L32" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M32" t="n">
-        <v>803.7147262854468</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N32" t="n">
-        <v>1189.965978238161</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O32" t="n">
-        <v>1520.054473311303</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P32" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q32" t="n">
         <v>1520.054473311303</v>
@@ -6730,22 +6730,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1387.368645331611</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U32" t="n">
-        <v>1130.308153591121</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V32" t="n">
-        <v>1130.308153591121</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W32" t="n">
-        <v>1130.308153591121</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X32" t="n">
-        <v>736.2144366717104</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y32" t="n">
-        <v>736.2144366717104</v>
+        <v>1203.123559741827</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>352.3547246730719</v>
+        <v>438.40224385513</v>
       </c>
       <c r="C33" t="n">
-        <v>352.3547246730719</v>
+        <v>438.40224385513</v>
       </c>
       <c r="D33" t="n">
-        <v>352.3547246730719</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E33" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F33" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G33" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H33" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I33" t="n">
         <v>31.21222238001735</v>
@@ -6785,22 +6785,22 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>996.52758384808</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M33" t="n">
-        <v>1382.778835800795</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N33" t="n">
-        <v>1382.778835800795</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O33" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P33" t="n">
-        <v>1382.778835800795</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q33" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
@@ -6812,19 +6812,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U33" t="n">
-        <v>1095.928434440403</v>
+        <v>1128.14474499496</v>
       </c>
       <c r="V33" t="n">
-        <v>882.216907433437</v>
+        <v>914.4332179879939</v>
       </c>
       <c r="W33" t="n">
-        <v>668.9837391697657</v>
+        <v>914.4332179879939</v>
       </c>
       <c r="X33" t="n">
-        <v>492.6577573086585</v>
+        <v>738.1072361268866</v>
       </c>
       <c r="Y33" t="n">
-        <v>492.6577573086585</v>
+        <v>578.7052764907166</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1120.546072681154</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="C34" t="n">
-        <v>949.4527002428704</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D34" t="n">
-        <v>789.9580555657803</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E34" t="n">
-        <v>629.0472404340999</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F34" t="n">
-        <v>464.4161145446911</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G34" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
@@ -6867,7 +6867,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M34" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N34" t="n">
         <v>1029.84703862227</v>
@@ -6882,28 +6882,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S34" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T34" t="n">
-        <v>1560.611119000868</v>
+        <v>1286.998174239356</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.611119000868</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="V34" t="n">
-        <v>1560.611119000868</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="W34" t="n">
-        <v>1560.611119000868</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="X34" t="n">
-        <v>1322.267256860551</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="Y34" t="n">
-        <v>1308.245779075198</v>
+        <v>1004.20002678548</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>525.696609476135</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="C35" t="n">
-        <v>131.6028925567241</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="D35" t="n">
-        <v>131.6028925567241</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="E35" t="n">
-        <v>131.6028925567241</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="F35" t="n">
-        <v>31.21222238001734</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="G35" t="n">
-        <v>31.21222238001734</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001734</v>
+        <v>36.83779030660384</v>
       </c>
       <c r="I35" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J35" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K35" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L35" t="n">
-        <v>417.4634743327319</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M35" t="n">
-        <v>417.4634743327319</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N35" t="n">
-        <v>747.5519694058729</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O35" t="n">
-        <v>1133.803221358588</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P35" t="n">
-        <v>1520.054473311302</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R35" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000867</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U35" t="n">
-        <v>1303.550627260377</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V35" t="n">
-        <v>1303.550627260377</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W35" t="n">
-        <v>919.7903263955459</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="X35" t="n">
-        <v>919.7903263955459</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="Y35" t="n">
-        <v>919.7903263955459</v>
+        <v>347.7462876788858</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>192.9527650369014</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C36" t="n">
-        <v>58.95769378584714</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="D36" t="n">
-        <v>31.21222238001734</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="E36" t="n">
-        <v>31.21222238001734</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001734</v>
+        <v>52.01289845874021</v>
       </c>
       <c r="K36" t="n">
-        <v>31.21222238001734</v>
+        <v>438.2641504114549</v>
       </c>
       <c r="L36" t="n">
-        <v>31.21222238001734</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4634743327319</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N36" t="n">
-        <v>803.7147262854465</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="O36" t="n">
-        <v>1189.965978238161</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="P36" t="n">
-        <v>1531.051599638237</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q36" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1293.279245302184</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U36" t="n">
         <v>1095.928434440403</v>
       </c>
       <c r="V36" t="n">
-        <v>882.2169074334365</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W36" t="n">
-        <v>668.9837391697653</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X36" t="n">
-        <v>492.6577573086581</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y36" t="n">
-        <v>333.2557976724881</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.546072681154</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="C37" t="n">
-        <v>949.4527002428704</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D37" t="n">
-        <v>789.9580555657803</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E37" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F37" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G37" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I37" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J37" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K37" t="n">
         <v>199.8470995074659</v>
@@ -7104,7 +7104,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7113,34 +7113,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P37" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000867</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000867</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T37" t="n">
-        <v>1560.611119000867</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U37" t="n">
-        <v>1560.611119000867</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V37" t="n">
-        <v>1560.611119000867</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="W37" t="n">
-        <v>1281.541454509741</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="X37" t="n">
-        <v>1281.541454509741</v>
+        <v>767.8046229619852</v>
       </c>
       <c r="Y37" t="n">
-        <v>1281.541454509741</v>
+        <v>767.8046229619852</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>342.1207197522994</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C38" t="n">
-        <v>342.1207197522994</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D38" t="n">
-        <v>342.1207197522994</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E38" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F38" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G38" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H38" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I38" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J38" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K38" t="n">
-        <v>31.21222238001734</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L38" t="n">
-        <v>417.4634743327319</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="M38" t="n">
-        <v>803.7147262854465</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="N38" t="n">
-        <v>1189.965978238161</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="O38" t="n">
-        <v>1520.054473311302</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P38" t="n">
-        <v>1520.054473311302</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R38" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S38" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T38" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U38" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V38" t="n">
-        <v>1210.773564337348</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W38" t="n">
-        <v>827.0132634725164</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X38" t="n">
-        <v>736.2144366717102</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y38" t="n">
-        <v>736.2144366717102</v>
+        <v>809.0298428224162</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>710.0430642665517</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C39" t="n">
-        <v>576.0479930154975</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="D39" t="n">
-        <v>459.1508352348899</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="E39" t="n">
-        <v>338.6580192272178</v>
+        <v>72.45994902922988</v>
       </c>
       <c r="F39" t="n">
-        <v>229.6981394097224</v>
+        <v>72.45994902922988</v>
       </c>
       <c r="G39" t="n">
-        <v>122.7080267240611</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H39" t="n">
-        <v>51.96081375977717</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I39" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J39" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7046310488247</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M39" t="n">
-        <v>408.7046310488247</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N39" t="n">
-        <v>794.9558830015393</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O39" t="n">
-        <v>1181.207134954254</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P39" t="n">
-        <v>1181.207134954254</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q39" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R39" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T39" t="n">
-        <v>1293.279245302184</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U39" t="n">
-        <v>1293.279245302184</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V39" t="n">
-        <v>1293.279245302184</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W39" t="n">
-        <v>1186.074038399415</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X39" t="n">
-        <v>1009.748056538308</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.3460969021384</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>343.371340165559</v>
+        <v>1004.20002678548</v>
       </c>
       <c r="C40" t="n">
-        <v>172.2779677272756</v>
+        <v>833.1066543471966</v>
       </c>
       <c r="D40" t="n">
-        <v>172.2779677272756</v>
+        <v>673.6120096701065</v>
       </c>
       <c r="E40" t="n">
-        <v>172.2779677272756</v>
+        <v>512.7011945384261</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2779677272756</v>
+        <v>348.0700686490173</v>
       </c>
       <c r="G40" t="n">
-        <v>31.21222238001734</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H40" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I40" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J40" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
         <v>199.8470995074659</v>
@@ -7341,7 +7341,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M40" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N40" t="n">
         <v>1029.84703862227</v>
@@ -7350,34 +7350,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P40" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q40" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S40" t="n">
-        <v>1374.219350880777</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T40" t="n">
-        <v>1134.670611857479</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.670611857479</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V40" t="n">
-        <v>860.7848667970013</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="W40" t="n">
-        <v>581.7152023058757</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="X40" t="n">
-        <v>343.371340165559</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="Y40" t="n">
-        <v>343.371340165559</v>
+        <v>1091.421203426902</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C41" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D41" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E41" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F41" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G41" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H41" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I41" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J41" t="n">
         <v>285.3976938477716</v>
@@ -7417,46 +7417,46 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L41" t="n">
-        <v>361.3007174531583</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M41" t="n">
-        <v>747.5519694058729</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N41" t="n">
-        <v>1133.803221358588</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O41" t="n">
-        <v>1520.054473311302</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P41" t="n">
-        <v>1520.054473311302</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q41" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R41" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T41" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U41" t="n">
-        <v>1560.611119000867</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V41" t="n">
-        <v>1560.611119000867</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W41" t="n">
-        <v>1176.850818136036</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="X41" t="n">
-        <v>782.7571012166248</v>
+        <v>469.5257042134764</v>
       </c>
       <c r="Y41" t="n">
-        <v>428.4724824352262</v>
+        <v>469.5257042134764</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>300.9427749225928</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C42" t="n">
-        <v>166.9477036715385</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D42" t="n">
-        <v>151.7050383876894</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E42" t="n">
-        <v>31.21222238001734</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I42" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J42" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>610.2763318953652</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
-        <v>824.5154023641693</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M42" t="n">
-        <v>1210.766654316884</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N42" t="n">
-        <v>1210.766654316884</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O42" t="n">
-        <v>1210.766654316884</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P42" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q42" t="n">
-        <v>1560.611119000867</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R42" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S42" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T42" t="n">
-        <v>1401.269255187875</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U42" t="n">
-        <v>1203.918444326094</v>
+        <v>1363.260308139086</v>
       </c>
       <c r="V42" t="n">
-        <v>990.2069173191278</v>
+        <v>1149.54878113212</v>
       </c>
       <c r="W42" t="n">
-        <v>776.9737490554566</v>
+        <v>936.3156128684487</v>
       </c>
       <c r="X42" t="n">
-        <v>600.6477671943494</v>
+        <v>759.9896310073416</v>
       </c>
       <c r="Y42" t="n">
-        <v>441.2458075581794</v>
+        <v>600.5876713711716</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1082.718517837253</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="C43" t="n">
-        <v>949.4527002428704</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="D43" t="n">
-        <v>789.9580555657803</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="E43" t="n">
-        <v>629.0472404340999</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4161145446911</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="G43" t="n">
-        <v>297.1657234702345</v>
+        <v>180.8196775745607</v>
       </c>
       <c r="H43" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I43" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J43" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K43" t="n">
         <v>199.8470995074659</v>
@@ -7578,7 +7578,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M43" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N43" t="n">
         <v>1029.84703862227</v>
@@ -7587,34 +7587,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P43" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S43" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T43" t="n">
-        <v>1321.062379977569</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U43" t="n">
-        <v>1321.062379977569</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V43" t="n">
-        <v>1321.062379977569</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W43" t="n">
-        <v>1321.062379977569</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.718517837253</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y43" t="n">
-        <v>1082.718517837253</v>
+        <v>246.9649608317736</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.21222238001735</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="C44" t="n">
-        <v>31.21222238001735</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D44" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E44" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F44" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G44" t="n">
         <v>31.21222238001735</v>
@@ -7648,52 +7648,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L44" t="n">
-        <v>1057.900197753201</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M44" t="n">
-        <v>1133.803221358588</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="N44" t="n">
-        <v>1133.803221358588</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="O44" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P44" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R44" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T44" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U44" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V44" t="n">
-        <v>1203.123559741827</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W44" t="n">
-        <v>819.3632588769958</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X44" t="n">
-        <v>425.2695419575848</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y44" t="n">
-        <v>425.2695419575848</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>710.0430642665517</v>
+        <v>423.3458587991111</v>
       </c>
       <c r="C45" t="n">
-        <v>576.0479930154975</v>
+        <v>289.3507875480568</v>
       </c>
       <c r="D45" t="n">
-        <v>459.1508352348899</v>
+        <v>172.4536297674492</v>
       </c>
       <c r="E45" t="n">
-        <v>338.6580192272179</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="F45" t="n">
-        <v>229.6981394097224</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="G45" t="n">
-        <v>122.7080267240611</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="H45" t="n">
         <v>51.96081375977718</v>
@@ -7727,52 +7727,52 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
-        <v>52.01289845874021</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>438.2641504114549</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L45" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M45" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N45" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O45" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P45" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R45" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U45" t="n">
-        <v>1223.459583545274</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V45" t="n">
-        <v>1009.748056538308</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W45" t="n">
-        <v>1009.748056538308</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X45" t="n">
-        <v>1009.748056538308</v>
+        <v>723.0508510708677</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.3460969021384</v>
+        <v>563.6488914346977</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>485.30882297209</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C46" t="n">
-        <v>485.30882297209</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D46" t="n">
-        <v>485.30882297209</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E46" t="n">
-        <v>324.3980078404094</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F46" t="n">
-        <v>159.7668819510007</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G46" t="n">
         <v>31.21222238001735</v>
@@ -7806,16 +7806,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522779</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875263</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280195</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N46" t="n">
         <v>1029.84703862227</v>
@@ -7824,34 +7824,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T46" t="n">
-        <v>1321.062379977569</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U46" t="n">
         <v>1038.264232523694</v>
       </c>
       <c r="V46" t="n">
-        <v>764.3784874632156</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W46" t="n">
-        <v>485.30882297209</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X46" t="n">
-        <v>485.30882297209</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.30882297209</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
   </sheetData>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M17" t="n">
         <v>93.29022445704545</v>
@@ -9181,13 +9181,13 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9257,16 +9257,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091145</v>
       </c>
       <c r="M19" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>89.13638967321712</v>
@@ -9409,19 +9409,19 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O20" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P20" t="n">
-        <v>427.0720855769865</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9488,7 +9488,7 @@
         <v>242.6595249281969</v>
       </c>
       <c r="M21" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9497,7 +9497,7 @@
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
@@ -9643,22 +9643,22 @@
         <v>479.289169423434</v>
       </c>
       <c r="L23" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>169.5820115701414</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>93.18977562578313</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>400.3567134917629</v>
+        <v>242.3707839019632</v>
       </c>
       <c r="L24" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M24" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9886,19 +9886,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>483.0650705068361</v>
+        <v>276.2960427287148</v>
       </c>
       <c r="O26" t="n">
-        <v>483.3425553759999</v>
+        <v>483.342555376</v>
       </c>
       <c r="P26" t="n">
-        <v>483.802143031101</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q26" t="n">
-        <v>166.7035252126743</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L27" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M27" t="n">
-        <v>447.7170634886342</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>402.2824097071475</v>
+        <v>237.3800478889625</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>485.6381778130617</v>
+        <v>278.8691500349403</v>
       </c>
       <c r="M29" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>142.8962644610781</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P29" t="n">
         <v>93.64936328088416</v>
@@ -10199,10 +10199,10 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>447.7170634886343</v>
+        <v>244.1092848557653</v>
       </c>
       <c r="N30" t="n">
-        <v>232.8219622827125</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10211,10 +10211,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L32" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>426.6124979218854</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P32" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10433,25 +10433,25 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>239.7383945110979</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.3211873938012</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10515,7 +10515,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952381</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
         <v>335.3881832803894</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>485.6381778130616</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N35" t="n">
-        <v>426.3350130527213</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>483.3425553759999</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>483.802143031101</v>
+        <v>236.0668064756412</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>72.38002271790189</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M36" t="n">
-        <v>447.7170634886342</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>443.3461731439668</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O36" t="n">
-        <v>447.9042587502168</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>398.7905657099512</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L38" t="n">
-        <v>485.6381778130616</v>
+        <v>278.8691500349403</v>
       </c>
       <c r="M38" t="n">
-        <v>483.4430042072622</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N38" t="n">
-        <v>483.0650705068361</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>426.6124979218852</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L39" t="n">
-        <v>242.6595249281966</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N39" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>447.9042587502168</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>172.1551188763667</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>483.4430042072622</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>483.0650705068361</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O41" t="n">
-        <v>483.3425553759999</v>
+        <v>483.342555376</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11141,13 +11141,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>445.9785625348322</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>272.5176252944896</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M42" t="n">
-        <v>447.7170634886342</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11156,13 +11156,13 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M44" t="n">
-        <v>169.9599452705675</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>467.5788066992237</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
@@ -11320,7 +11320,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>72.38002271790189</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23734,10 +23734,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>318.1019566246374</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23749,7 +23749,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -23794,7 +23794,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>71.93963060705246</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>120.0526453894765</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23940,7 +23940,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23955,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>20.04403357805535</v>
       </c>
       <c r="F20" t="n">
-        <v>210.2366816801384</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G20" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,7 +24031,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>87.85102655437476</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
@@ -24050,25 +24050,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>100.9433697935107</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>31.34243305653136</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.404967731425728</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>60.20507622247061</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>26.66732817563241</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>15.44620375548061</v>
       </c>
       <c r="H23" t="n">
-        <v>39.41100715663191</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -24287,10 +24287,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H24" t="n">
         <v>70.03974083464111</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>65.08496217608399</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>75.43258572003928</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.562004291913325</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,19 +24451,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>69.68512262872144</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>26.66732817563252</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G26" t="n">
-        <v>14.48822151587933</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>210.7123195581773</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -24521,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>29.20449145192067</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>20.54110546596223</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>100.6379475717911</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>114.2255501214184</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>181.7477158372477</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
-        <v>17.18083222877232</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>271.5305286567178</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>34.05524088617396</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>70.03974083464111</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24818,7 +24818,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>100.6379475717905</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.8937355964505</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>155.4087736818866</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>30.31014884051433</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G32" t="n">
         <v>14.48822151587922</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>182.4026347338863</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -24982,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25004,7 +25004,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>105.7281494561998</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25016,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>31.89414744901126</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>235.2242778994115</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25140,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.6070786176237</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.96618811762778</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>15.87056502964577</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25165,16 +25165,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>317.4333444509097</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>79.91893280877694</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25235,16 +25235,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>80.40226432754852</v>
       </c>
       <c r="D36" t="n">
-        <v>88.26016951102999</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>105.9202115588047</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.43728131980222</v>
+        <v>102.3603397588654</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.96618811762778</v>
+        <v>26.23230338008665</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25399,7 +25399,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25408,7 +25408,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>306.7461253199389</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="39">
@@ -25472,22 +25472,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>85.62606764204651</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25526,13 +25526,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>104.9676817472936</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>99.47374445509634</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>25.9227992699264</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>279.9880332512793</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.484184102520203</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.18553372780616</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>50.75978341624908</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>100.6379475717909</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>105.9202115588047</v>
@@ -25760,7 +25760,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>120.3388789054632</v>
       </c>
       <c r="C43" t="n">
-        <v>37.44927929546222</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.0022214860528</v>
+        <v>62.47239946385344</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -25879,7 +25879,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -25927,10 +25927,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25955,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>126.2558376138224</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>121.1790530377527</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>38.30877418843851</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>150357.0455461972</v>
+        <v>493111.1961371857</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493111.1961371858</v>
+        <v>493111.1961371857</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493111.1961371858</v>
+        <v>493111.1961371856</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493111.1961371855</v>
+        <v>493111.1961371856</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>493111.1961371858</v>
+        <v>493111.1961371857</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493111.1961371858</v>
+        <v>493111.1961371857</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>493111.1961371856</v>
+        <v>493111.1961371858</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493111.1961371858</v>
+        <v>493111.1961371856</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493111.1961371857</v>
+        <v>493111.1961371858</v>
       </c>
     </row>
     <row r="16">
@@ -26328,34 +26328,34 @@
         <v>21826.02274057701</v>
       </c>
       <c r="G2" t="n">
-        <v>21826.02274057701</v>
+        <v>71564.36895703201</v>
       </c>
       <c r="H2" t="n">
-        <v>71564.36895703198</v>
+        <v>71564.368957032</v>
       </c>
       <c r="I2" t="n">
-        <v>71564.36895703198</v>
+        <v>71564.36895703201</v>
       </c>
       <c r="J2" t="n">
-        <v>71564.36895703198</v>
+        <v>71564.36895703197</v>
       </c>
       <c r="K2" t="n">
         <v>71564.368957032</v>
       </c>
       <c r="L2" t="n">
-        <v>71564.36895703198</v>
+        <v>71564.368957032</v>
       </c>
       <c r="M2" t="n">
-        <v>71564.36895703197</v>
+        <v>71564.36895703201</v>
       </c>
       <c r="N2" t="n">
-        <v>71564.36895703195</v>
+        <v>71564.368957032</v>
       </c>
       <c r="O2" t="n">
         <v>71564.36895703197</v>
       </c>
       <c r="P2" t="n">
-        <v>71564.36895703198</v>
+        <v>71564.368957032</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106935.0246378382</v>
       </c>
       <c r="H3" t="n">
-        <v>105266.7313516263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93890.65659966946</v>
       </c>
       <c r="P3" t="n">
-        <v>92221.97316067779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>2425.11363784189</v>
       </c>
       <c r="G4" t="n">
-        <v>2425.11363784189</v>
+        <v>8402.128113625799</v>
       </c>
       <c r="H4" t="n">
         <v>8402.128113625799</v>
@@ -26441,7 +26441,7 @@
         <v>8402.128113625799</v>
       </c>
       <c r="J4" t="n">
-        <v>8402.128113625797</v>
+        <v>8402.1281136258</v>
       </c>
       <c r="K4" t="n">
         <v>8402.128113625799</v>
@@ -26450,13 +26450,13 @@
         <v>8402.128113625799</v>
       </c>
       <c r="M4" t="n">
-        <v>8402.128113625797</v>
+        <v>8402.128113625799</v>
       </c>
       <c r="N4" t="n">
-        <v>8402.128113625797</v>
+        <v>8402.128113625799</v>
       </c>
       <c r="O4" t="n">
-        <v>8402.128113625797</v>
+        <v>8402.128113625799</v>
       </c>
       <c r="P4" t="n">
         <v>8402.128113625799</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="H5" t="n">
         <v>23721.28900881319</v>
@@ -26493,7 +26493,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="J5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="K5" t="n">
         <v>23721.28900881319</v>
@@ -26502,13 +26502,13 @@
         <v>23721.28900881319</v>
       </c>
       <c r="M5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="N5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="O5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
         <v>23721.28900881319</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619474</v>
       </c>
       <c r="G6" t="n">
-        <v>19400.90910273512</v>
+        <v>-68327.73707849163</v>
       </c>
       <c r="H6" t="n">
-        <v>-65825.77951703328</v>
+        <v>38607.28755934657</v>
       </c>
       <c r="I6" t="n">
-        <v>39440.951834593</v>
+        <v>38607.28755934659</v>
       </c>
       <c r="J6" t="n">
-        <v>39440.95183459301</v>
+        <v>38607.28755934654</v>
       </c>
       <c r="K6" t="n">
-        <v>39440.95183459301</v>
+        <v>38607.28755934657</v>
       </c>
       <c r="L6" t="n">
-        <v>39440.951834593</v>
+        <v>38607.28755934657</v>
       </c>
       <c r="M6" t="n">
-        <v>39440.951834593</v>
+        <v>38607.28755934659</v>
       </c>
       <c r="N6" t="n">
-        <v>39440.95183459298</v>
+        <v>38607.28755934657</v>
       </c>
       <c r="O6" t="n">
-        <v>39440.951834593</v>
+        <v>-55283.36904032291</v>
       </c>
       <c r="P6" t="n">
-        <v>-52781.0213260848</v>
+        <v>38607.28755934657</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H4" t="n">
         <v>390.1527797502169</v>
@@ -26813,7 +26813,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="J4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
         <v>390.1527797502169</v>
@@ -26822,13 +26822,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
         <v>390.1527797502169</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35901,13 +35901,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>262.522323515213</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O20" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P20" t="n">
-        <v>333.4227222961023</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36208,16 +36208,16 @@
         <v>186.5450011173479</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
@@ -36363,22 +36363,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="P23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M23" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N23" t="n">
-        <v>76.66972081352203</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>344.5309307071475</v>
+        <v>186.5450011173478</v>
       </c>
       <c r="L24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N24" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36606,19 +36606,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>390.1527797502168</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="O26" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P26" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q26" t="n">
-        <v>76.66972081352226</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L27" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M27" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>344.5309307071474</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>183.3837519720955</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L29" t="n">
+      <c r="O29" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M29" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N29" t="n">
-        <v>49.9839737044588</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36919,10 +36919,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="N30" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="P32" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M32" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N32" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O32" t="n">
-        <v>333.4227222961023</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37153,25 +37153,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="O33" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M33" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.6285688889625</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,7 +37235,7 @@
         <v>262.5223235152127</v>
       </c>
       <c r="M34" t="n">
-        <v>292.1859155964581</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N34" t="n">
         <v>283.67553777197</v>
@@ -37247,7 +37247,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.18992909344529</v>
+        <v>66.18992909344536</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N35" t="n">
-        <v>333.422722296102</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>390.1527797502168</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>21.01078391790188</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M36" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O36" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>344.5309307071474</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L38" t="n">
-        <v>390.1527797502168</v>
+        <v>183.3837519720955</v>
       </c>
       <c r="M38" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N38" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>333.4227222961021</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L39" t="n">
-        <v>186.5450011173476</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N39" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>76.66972081352191</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>390.1527797502168</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O41" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37861,13 +37861,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
-        <v>216.4031014836405</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M42" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M44" t="n">
-        <v>76.66972081352203</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>374.3890310734406</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>21.01078391790188</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
